--- a/data/trans_camb/P1410-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1410-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>2.095049999555813</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8175885058317727</v>
+        <v>0.817588505831772</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.1479287840109894</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.611778613997012</v>
+        <v>-2.579577024170526</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.914122615347728</v>
+        <v>-1.849323352191311</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3839908605843951</v>
+        <v>-0.6312279589989717</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.860770633939132</v>
+        <v>-1.807907697946596</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4212855353742787</v>
+        <v>-0.1998166879939779</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.080022798026189</v>
+        <v>-1.382255357751573</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.562855465897647</v>
+        <v>-1.66959659305398</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.3511954367639148</v>
+        <v>-0.626374846096722</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2806925109993053</v>
+        <v>-0.3199712503519527</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.307928679266954</v>
+        <v>1.318841200446111</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.283581469690728</v>
+        <v>2.204432673951751</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.898329194393344</v>
+        <v>3.753710969788841</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.469639116440307</v>
+        <v>2.581700415679733</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.442826058250738</v>
+        <v>4.953405734725961</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.9226766762757</v>
+        <v>2.803142547152597</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.401841733326211</v>
+        <v>1.588966377803728</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.868962933565874</v>
+        <v>2.626719804583507</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.609367704096749</v>
+        <v>2.678824433799011</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.4832916358617209</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1886034636543055</v>
+        <v>0.1886034636543054</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.03511103116857824</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5304690947935033</v>
+        <v>-0.503411099645287</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3890682552445908</v>
+        <v>-0.371390402501356</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.08134896512412428</v>
+        <v>-0.118854338106865</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3475420702962028</v>
+        <v>-0.3407060440578597</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09561003006902069</v>
+        <v>-0.04969935662663611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2049437003241514</v>
+        <v>-0.2506134626976345</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3206602327498777</v>
+        <v>-0.3271260114496331</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0709744459712187</v>
+        <v>-0.1357065172734217</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.05590530996342168</v>
+        <v>-0.06926366076632781</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3995598501914026</v>
+        <v>0.4323357303248355</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6973029458074618</v>
+        <v>0.6452140320980816</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.253114511184529</v>
+        <v>1.180631839075136</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7237240954231977</v>
+        <v>0.797064052341124</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.328008812481268</v>
+        <v>1.646622152139107</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9382578194740049</v>
+        <v>0.8224767763155874</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3992708021883191</v>
+        <v>0.4865142772631497</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.812767795373989</v>
+        <v>0.7515414678111946</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7577855448844927</v>
+        <v>0.8054496893754217</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.5546007875650301</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.5624398912200235</v>
+        <v>0.5624398912200228</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.003670946038587114</v>
@@ -878,7 +878,7 @@
         <v>-0.4758551582887155</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.3982047085728406</v>
+        <v>0.3982047085728399</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.374016073231816</v>
+        <v>-2.305714074723329</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.131044707573251</v>
+        <v>-2.340892853795303</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.613616214658207</v>
+        <v>-1.526101976276837</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.546776929600975</v>
+        <v>-1.381162197881889</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.413594574613068</v>
+        <v>-2.519613946432922</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.230714213224112</v>
+        <v>-1.141311893245801</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.308378476417133</v>
+        <v>-1.370911308089337</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.755593337064356</v>
+        <v>-1.716924325816258</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.9208480114280264</v>
+        <v>-0.8576006755938436</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.454340934927557</v>
+        <v>1.360427899630324</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.307878787685434</v>
+        <v>1.514225400341941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.847462248721897</v>
+        <v>1.990965905034903</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.120260247171597</v>
+        <v>2.11506242028651</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.276859501616924</v>
+        <v>1.056369362777607</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.057922602691828</v>
+        <v>2.004854027798721</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.137702124067229</v>
+        <v>1.234093562298702</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6073420754858114</v>
+        <v>0.7156272725807331</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.497744210922912</v>
+        <v>1.666081955715615</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1438138406841968</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1458466030412353</v>
+        <v>0.1458466030412351</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.0008993063096633799</v>
@@ -983,7 +983,7 @@
         <v>-0.1165747308286817</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.09755196703873444</v>
+        <v>0.09755196703873427</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4432283759576832</v>
+        <v>-0.4371574016148939</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4196509055256975</v>
+        <v>-0.4296597536753641</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3043020133188302</v>
+        <v>-0.2953255941772999</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3131831597646306</v>
+        <v>-0.3011500799740135</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4892916481139279</v>
+        <v>-0.5050436376315304</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2425208927434991</v>
+        <v>-0.2295901038825406</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2717525145524129</v>
+        <v>-0.2853406299040598</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3650353603080903</v>
+        <v>-0.3671216589740383</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1861251135142169</v>
+        <v>-0.1821201667792555</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4365727023159045</v>
+        <v>0.4104187237621987</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3869565268621851</v>
+        <v>0.4611688467734865</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5774875881670651</v>
+        <v>0.5831038765069386</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7281136312931715</v>
+        <v>0.7127603450303321</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4991886113144979</v>
+        <v>0.3447906396956423</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.705768044159314</v>
+        <v>0.6641755897334219</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3187999325738805</v>
+        <v>0.3563879085232591</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1855810724755145</v>
+        <v>0.208326973168891</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4462017518454874</v>
+        <v>0.4776818399168373</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.45575206779307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6439020944730173</v>
+        <v>0.6439020944730166</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.774270383356544</v>
@@ -1092,7 +1092,7 @@
         <v>-0.7768205217465358</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.3009273717184839</v>
+        <v>-0.3009273717184846</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.3040405188198</v>
+        <v>-4.077261140719318</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.923194547866701</v>
+        <v>-3.687572966319476</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.68426860259857</v>
+        <v>-1.749852922412434</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.755124941410884</v>
+        <v>-3.758164343633241</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.330385335572361</v>
+        <v>-2.309469681627446</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.102358919602574</v>
+        <v>-3.190756116290394</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.331777773611475</v>
+        <v>-3.242477942188597</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.447975624185525</v>
+        <v>-2.345772316095978</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.933743364615646</v>
+        <v>-1.754448686158319</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3255989395247069</v>
+        <v>0.3985694646834698</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6290806141245182</v>
+        <v>0.7226998001502968</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.269154447818567</v>
+        <v>3.262846805310802</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2968430213139359</v>
+        <v>0.1716588255529854</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.094430354079237</v>
+        <v>2.061998460272076</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7287507112298203</v>
+        <v>0.6354714011957899</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.2840176241266058</v>
+        <v>-0.2995535434595733</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7894107414645937</v>
+        <v>0.7461494263581909</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.114836162704292</v>
+        <v>1.302819102734104</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2733448673289806</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1209047450321729</v>
+        <v>0.1209047450321728</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3796170303094947</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1554108966776596</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.06020360091475599</v>
+        <v>-0.06020360091475613</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6352072084866426</v>
+        <v>-0.6101471735603906</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5812017692646334</v>
+        <v>-0.5652205658939594</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2637038363148381</v>
+        <v>-0.2814937626043924</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6637606257431088</v>
+        <v>-0.6295704578575599</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4048360371358329</v>
+        <v>-0.4042271030716496</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5285562190597985</v>
+        <v>-0.54258156934212</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5618932896805864</v>
+        <v>-0.5566734204134112</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4060969912414574</v>
+        <v>-0.4059837003126867</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3208208821820431</v>
+        <v>-0.3063541747351374</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1305443626162112</v>
+        <v>0.1234045891799226</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1878297640949039</v>
+        <v>0.2055447059753398</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8105364781433227</v>
+        <v>0.8190116226254439</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1165076931612185</v>
+        <v>0.1124863292387774</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5552372000473205</v>
+        <v>0.5983416325438112</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2485625056758343</v>
+        <v>0.204568121378706</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.04950015022323129</v>
+        <v>-0.06471881026723766</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1996168841197131</v>
+        <v>0.1907861027940142</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2863364239939098</v>
+        <v>0.3320735070948106</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.755721793324496</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.83525853636882</v>
+        <v>1.835258536368819</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.957962196501172</v>
@@ -1306,7 +1306,7 @@
         <v>0.1980086573626819</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.427537055851142</v>
+        <v>1.427537055851141</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.180425043357803</v>
+        <v>-2.063325453657114</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.375396081731981</v>
+        <v>-3.239449107954985</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.066982827000651</v>
+        <v>-0.7770524501165714</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4015685533997464</v>
+        <v>0.5460418189801878</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.178645838396477</v>
+        <v>0.08336243571925032</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.298294307739928</v>
+        <v>0.3506665755593146</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.2812827099111676</v>
+        <v>-0.2556754395772939</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.052938906174424</v>
+        <v>-1.008263293217649</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2949528019542395</v>
+        <v>0.2186562278542347</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.470701031949853</v>
+        <v>1.67004829121929</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02145152565968076</v>
+        <v>0.1867518116614872</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.609946961511114</v>
+        <v>2.823536634322107</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.66577379219153</v>
+        <v>3.811803150203906</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.62931324371019</v>
+        <v>3.527378687209267</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.257173619309683</v>
+        <v>3.219058914194466</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.216085975707493</v>
+        <v>2.211864657012453</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.409743698535056</v>
+        <v>1.459243943088439</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.591935640666845</v>
+        <v>2.476540461750597</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.6617911646401934</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.691771263999399</v>
+        <v>0.6917712639993985</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2645303471379038</v>
@@ -1411,7 +1411,7 @@
         <v>0.05467783494982248</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3941980949934717</v>
+        <v>0.3941980949934715</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3982301060905131</v>
+        <v>-0.3652505602899136</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5810628835404217</v>
+        <v>-0.576960680689184</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1897795730599572</v>
+        <v>-0.1496608181389915</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.09174244566386068</v>
+        <v>0.1551176151080307</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0416850704201322</v>
+        <v>-0.006783218738817191</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07977039421658476</v>
+        <v>0.06425901133753008</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07308290038543792</v>
+        <v>-0.05747639573105363</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2539177708685925</v>
+        <v>-0.2441068057650264</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.06816102980746939</v>
+        <v>0.05153752241730423</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3912429088085647</v>
+        <v>0.4643954739896441</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.03326442617697888</v>
+        <v>0.06507409670453179</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6678986690492992</v>
+        <v>0.7925989656826053</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.876369184771817</v>
+        <v>1.948834051312584</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.741537955307661</v>
+        <v>1.789715736780737</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.672728943559096</v>
+        <v>1.584006299325999</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6990906216656217</v>
+        <v>0.7581141429616524</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4572757735767374</v>
+        <v>0.4557351378805268</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8356649562374893</v>
+        <v>0.7960492300687978</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.8249823431779296</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8275908077304988</v>
+        <v>0.8275908077304973</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.4369038254308122</v>
@@ -1511,7 +1511,7 @@
         <v>0.7512283139158992</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.6215837438880261</v>
+        <v>0.6215837438880254</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.133402354874914</v>
@@ -1520,7 +1520,7 @@
         <v>-0.02241132809695928</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.7166790029804894</v>
+        <v>0.7166790029804901</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.720000492887181</v>
+        <v>-1.569975449967316</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.784560780969936</v>
+        <v>-1.771182696620294</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.1860562073155917</v>
+        <v>-0.133088211756443</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.5123388390563407</v>
+        <v>-0.4596240638738037</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.2459980056903105</v>
+        <v>-0.2079614422764181</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.265486090686179</v>
+        <v>-0.2220768019444338</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.7956589631636901</v>
+        <v>-0.7918700787344057</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.6755630185499603</v>
+        <v>-0.7273282762795342</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.09003321795107759</v>
+        <v>0.0824807622156085</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2046120023839479</v>
+        <v>0.3605992977894218</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1685699865389141</v>
+        <v>0.1476568836851292</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.860351454500805</v>
+        <v>1.820738405447056</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.417741654908044</v>
+        <v>1.353939361044104</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.706078077938144</v>
+        <v>1.70038667377102</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.502695872758375</v>
+        <v>1.37955955151391</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5947328163436981</v>
+        <v>0.59593379737387</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6921282109869219</v>
+        <v>0.6857938029875159</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.402690491079747</v>
+        <v>1.36451110173747</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1800126667960001</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.180581838565837</v>
+        <v>0.1805818385658367</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.116525490711849</v>
@@ -1616,7 +1616,7 @@
         <v>0.2003581631022991</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1657809947158051</v>
+        <v>0.1657809947158049</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.03206986036527403</v>
@@ -1625,7 +1625,7 @@
         <v>-0.005387672229202768</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1722892791049984</v>
+        <v>0.1722892791049986</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.336734071663494</v>
+        <v>-0.3129203091325316</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3557175148745395</v>
+        <v>-0.3475472475430363</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04167561344375342</v>
+        <v>-0.02544720694444474</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1209070244414446</v>
+        <v>-0.1127403052502421</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05621460280772723</v>
+        <v>-0.05066347813877754</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.07040450611974122</v>
+        <v>-0.05149068814732508</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1792392189285115</v>
+        <v>-0.1734876035601208</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1531931531192734</v>
+        <v>-0.1556183825312712</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.01948136965177125</v>
+        <v>0.02043402635699813</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.05245337555995565</v>
+        <v>0.09600033108870654</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.04350192379352382</v>
+        <v>0.03634960940387587</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4618257580794732</v>
+        <v>0.4548489574075457</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4338926445550366</v>
+        <v>0.4172346971740183</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5143512787693323</v>
+        <v>0.5116118750249604</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4568973606987478</v>
+        <v>0.4277744095219674</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1583913757663026</v>
+        <v>0.1552187367729201</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.183277682631705</v>
+        <v>0.1757425316259294</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3661839865926228</v>
+        <v>0.3637524712862759</v>
       </c>
     </row>
     <row r="34">
